--- a/predictions/multiple/AdaBoostRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Enfermedades cardíacas.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4993216679678861</v>
+        <v>0.4972442569264486</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9900574452206498</v>
+        <v>0.990098810886119</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2385409582162982</v>
+        <v>0.2366804259145203</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9953377109728074</v>
+        <v>0.9953740751234346</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3338120745182613</v>
+        <v>0.3260174926613204</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9935781979646513</v>
+        <v>0.9937281483872231</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3933484053847041</v>
+        <v>0.4157501463790373</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9922437079877967</v>
+        <v>0.9918019763261064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/predictions/multiple/AdaBoostRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Enfermedades cardíacas.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4972442569264486</v>
+        <v>0.4872029006772032</v>
       </c>
       <c r="C2" t="n">
-        <v>0.990098810886119</v>
+        <v>0.9902987556130791</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2366804259145203</v>
+        <v>0.2379542753380778</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9953740751234346</v>
+        <v>0.9953491777044162</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3260174926613204</v>
+        <v>0.3461213788481244</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9937281483872231</v>
+        <v>0.9933413943208247</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4157501463790373</v>
+        <v>0.4131214985353385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918019763261064</v>
+        <v>0.9918538096626445</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/predictions/multiple/AdaBoostRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Enfermedades cardíacas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4872029006772032</v>
+        <v>0.4990795993067688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9902987556130791</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9900622653217547</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5739053831682486</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -480,12 +488,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2379542753380778</v>
+        <v>0.2405002146899179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9953491777044162</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>0.9952994172557589</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.381236035918039</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -498,12 +509,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3461213788481244</v>
+        <v>0.3485103678959032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9933413943208247</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>0.9932954354838006</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4721310413590081</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -516,12 +530,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4131214985353385</v>
+        <v>0.4037020542686865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918538096626445</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>0.9920395482072137</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4999052006732372</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/AdaBoostRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Enfermedades cardíacas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4990795993067688</v>
+        <v>0.4802115233506354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9900622653217547</v>
+        <v>0.9904379687826885</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5739053831682486</v>
+        <v>0.5634498732813795</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2405002146899179</v>
+        <v>0.2391564293541118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9952994172557589</v>
+        <v>0.995325681573941</v>
       </c>
       <c r="D3" t="n">
-        <v>0.381236035918039</v>
+        <v>0.3815729935562729</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -509,17 +542,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3485103678959032</v>
+        <v>0.317720178047969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9932954354838006</v>
+        <v>0.9938877702701309</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4721310413590081</v>
+        <v>0.4478343651291319</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -530,17 +577,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4037020542686865</v>
+        <v>0.4192265508146497</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9920395482072137</v>
+        <v>0.9917334263902583</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4999052006732372</v>
+        <v>0.5047277010375186</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/AdaBoostRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Enfermedades cardíacas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4802115233506354</v>
+        <v>0.5127686906183955</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9904379687826885</v>
+        <v>0.9897896864432949</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5634498732813795</v>
+        <v>0.5810528266363498</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,6 +509,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>0.4788041146331428</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2391564293541118</v>
+        <v>0.2424375111208306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.995325681573941</v>
+        <v>0.9952615527482974</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3815729935562729</v>
+        <v>0.3822725189317837</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -534,6 +550,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>0.4788041146331428</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.317720178047969</v>
+        <v>0.3424764921622552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9938877702701309</v>
+        <v>0.9934115138357396</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4478343651291319</v>
+        <v>0.4643252469896818</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -569,6 +591,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>0.4788041146331428</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -577,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4192265508146497</v>
+        <v>0.4120572361557082</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9917334263902583</v>
+        <v>0.9918747954596656</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5047277010375186</v>
+        <v>0.5098666015399509</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -604,6 +632,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>0.4788041146331428</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/AdaBoostRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Enfermedades cardíacas.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5127686906183955</v>
+        <v>0.4934400709516357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9897896864432949</v>
+        <v>0.9901745603075277</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5810528266363498</v>
+        <v>0.5718178434248363</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.4788041146331428</v>
+        <v>0.495515052700163</v>
       </c>
       <c r="H2" t="n">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2424375111208306</v>
+        <v>0.2342069299446505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9952615527482974</v>
+        <v>0.9954224196643694</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3822725189317837</v>
+        <v>0.3762293835166182</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.4788041146331428</v>
+        <v>0.495515052700163</v>
       </c>
       <c r="H3" t="n">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3424764921622552</v>
+        <v>0.3365276636241614</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9934115138357396</v>
+        <v>0.9935259560687505</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4643252469896818</v>
+        <v>0.4578331441776196</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -588,14 +588,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4788041146331428</v>
+        <v>0.495515052700163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4120572361557082</v>
+        <v>0.4005213905147924</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918747954596656</v>
+        <v>0.9921022665417236</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5098666015399509</v>
+        <v>0.4954309047566893</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,14 +629,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.4788041146331428</v>
+        <v>0.495515052700163</v>
       </c>
       <c r="H5" t="n">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/AdaBoostRegressor/Enfermedades cardíacas.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Enfermedades cardíacas.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4934400709516357</v>
+        <v>0.4854213574091631</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9901745603075277</v>
+        <v>0.9903342299228689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5718178434248363</v>
+        <v>0.567746984583792</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.495515052700163</v>
+        <v>0.4821145882335259</v>
       </c>
       <c r="H2" t="n">
-        <v>0.983</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2342069299446505</v>
+        <v>0.2403775317171263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9954224196643694</v>
+        <v>0.9953018150975473</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3762293835166182</v>
+        <v>0.3872771956938404</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.495515052700163</v>
+        <v>0.4821145882335259</v>
       </c>
       <c r="H3" t="n">
-        <v>0.983</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3365276636241614</v>
+        <v>0.3477187780492769</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9935259560687505</v>
+        <v>0.9933106639122377</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4578331441776196</v>
+        <v>0.4697298980578373</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.495515052700163</v>
+        <v>0.4821145882335259</v>
       </c>
       <c r="H4" t="n">
-        <v>0.983</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4005213905147924</v>
+        <v>0.383890278696353</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9921022665417236</v>
+        <v>0.9924302092967611</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4954309047566893</v>
+        <v>0.4868141901908184</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.495515052700163</v>
+        <v>0.4821145882335259</v>
       </c>
       <c r="H5" t="n">
-        <v>0.983</v>
+        <v>0.992</v>
       </c>
     </row>
   </sheetData>
